--- a/Dr_Nawaz_Project_Line_Graph/Extracted_for Python_3rd_paper.xlsx
+++ b/Dr_Nawaz_Project_Line_Graph/Extracted_for Python_3rd_paper.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Study and Extras\Dr Nawaz Sb Paper\3rd paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Dr_Nawaz_Project_Line_Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A21487-0257-446A-B639-199BF3E22E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41E9F3E-6AD5-4992-B767-0506A11528C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08CCD26A-D48D-43C3-BE6D-878E55F2B837}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>Variety</t>
-  </si>
-  <si>
     <t>Root length (cm)</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>Total Flavonoid Content (µg/mL sample)</t>
+  </si>
+  <si>
+    <t>variety</t>
   </si>
 </sst>
 </file>
@@ -526,13 +526,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869F680A-E246-47C9-9EC3-A44998B6E617}">
   <dimension ref="A1:AJ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
@@ -559,109 +559,109 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>6</v>
